--- a/src/app/uploads/models/markeeff/my_model/handled_data.xlsx
+++ b/src/app/uploads/models/markeeff/my_model/handled_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>sequences</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vectors</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -469,12 +474,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['это', 'рубашка', 'фильм', 'ужас', 'ранее', 'покупать', 'рубашка', 'продавец', 'размер', 'xs', 'примечательно', 'м', 'сидеть', 'отлично', 'далеко', 'обтяга', 'нарекание', 'ткань', 'мягкий', 'тянуться', 'поправиться', 'решить', 'заказать', 'большой', 'сразу', 'l', 'сидеть', 'оверсайза', 'знать', 'большемерить', 'село', 'качество', 'вопрос', 'ткань', 'намёк', 'эластан', 'вообще', 'никак', 'тянуться', 'хлопок', 'бумага', 'жёсткий', 'петля', 'пуговица', 'обработать', 'отвратительный', 'нитка', 'торчать', 'каждый', 'петля', 'пуговица', 'пришить', 'торчать', 'нитка', 'потянуть', 'который', 'пуговица', 'просто', 'отвалиться', 'вернуть', 'это', 'безобразие', 'платно', 'печалить', 'еле', 'качество', 'пошив', 'использовать', 'материал', 'катастрофически', 'испортиться', 'вывод', 'переплатить', 'получить', 'достойный', 'вещь', 'который', 'прослужить', 'долго', 'бумажный', 'нитковыя', 'кусок', 'ткань']</t>
+          <t>['большой', 'далеко', 'сразу', 'большемерить', 'xs', 'решить', 'обработать', 'который', 'вернуть', 'знать', 'нарекание', 'использовать', 'покупать', 'намёк', 'петля', 'рубашка', 'продавец', 'пришить', 'вещь', 'размер', 'примечательно', 'сидеть', 'оверсайза', 'ужас', 'отвратительный', 'потянуть', 'пошив', 'катастрофически', 'бумажный', 'просто', 'ранее', 'мягкий', 'материал', 'бумага', 'отлично', 'получить', 'село', 'торчать', 'нитковыя', 'переплатить', 'никак', 'каждый', 'долго', 'отвалиться', 'кусок', 'безобразие', 'вообще', 'нитка', 'испортиться', 'вопрос', 'эластан', 'фильм', 'обтяга', 'печалить', 'вывод', 'достойный', 'жёсткий', 'тянуться', 'ткань', 'хлопок', 'прослужить', 'заказать', 'еле', 'поправиться', 'пуговица', 'платно', 'это', 'качество']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[8, 2, 244, 134, 245, 135, 2, 40, 3, 136, 246, 33, 86, 67, 247, 248, 249, 10, 250, 87, 251, 88, 13, 89, 137, 53, 86, 6, 90, 68, 69, 7, 252, 10, 253, 254, 25, 138, 87, 54, 255, 139, 91, 41, 256, 257, 16, 17, 140, 91, 41, 258, 17, 16, 259, 55, 41, 14, 260, 92, 8, 261, 262, 263, 264, 7, 141, 265, 42, 266, 267, 268, 269, 93, 270, 26, 55, 271, 272, 273, 274, 275, 10]</t>
+          <t>[80, 228, 121, 60, 122, 81, 229, 61, 82, 83, 230, 231, 123, 232, 124, 2, 36, 233, 25, 3, 234, 125, 5, 126, 235, 236, 127, 237, 238, 14, 239, 240, 37, 241, 62, 84, 63, 19, 242, 243, 128, 129, 244, 245, 246, 247, 26, 20, 248, 249, 250, 251, 252, 253, 254, 255, 130, 131, 10, 48, 256, 13, 257, 258, 64, 259, 11, 7]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -492,12 +502,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['честно', 'всё', 'понравиться', 'торчать', 'нитка', 'некоторый', 'место', 'это', 'норма', 'ещё', 'очень', 'мало', 'просвечивает.фотка', 'рубашка', 'оставить', 'низ']</t>
+          <t>['мало', 'рубашка', 'это', 'норма', 'ещё', 'торчать', 'низ', 'оставить', 'просвечивает.фотка', 'всё', 'очень', 'нитка', 'некоторый', 'место', 'честно', 'понравиться']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[276, 27, 18, 17, 16, 277, 142, 8, 143, 94, 5, 278, 279, 2, 70, 144]</t>
+          <t>[260, 2, 11, 132, 85, 19, 133, 65, 261, 27, 6, 20, 262, 134, 263, 16]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -515,12 +530,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['рубашка', 'качество', 'хороший', 'ранний', 'брать', 'подойти', 'размер', 'слишком', 'оверсайса', 'пункт', 'выдача', 'принять', 'т.', 'к.', 'обозначение', 'бренд', 'обрезать', 'пришивать', 'просить', 'помочь', 'возврат']</t>
+          <t>['подойти', 'бренд', 'ранний', 'помочь', 'рубашка', 'размер', 'к.', 'обрезать', 'просить', 'выдача', 'принять', 'брать', 'т.', 'хороший', 'оверсайса', 'обозначение', 'пункт', 'возврат', 'пришивать', 'слишком', 'качество']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[2, 7, 4, 280, 15, 56, 3, 57, 281, 282, 283, 284, 285, 286, 287, 288, 145, 289, 290, 291, 71]</t>
+          <t>[49, 264, 265, 266, 2, 3, 267, 135, 268, 269, 270, 15, 271, 4, 272, 273, 274, 66, 275, 50, 7]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -538,12 +558,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['рубашка', 'классный', 'ожидать', 'маленький', 'менее', 'прикольный', 'весь', 'советовать']</t>
+          <t>['менее', 'рубашка', 'ожидать', 'маленький', 'прикольный', 'весь', 'советовать', 'классный']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[2, 34, 292, 43, 293, 146, 95, 44]</t>
+          <t>[276, 2, 277, 38, 136, 86, 39, 31]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -561,12 +586,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['рубашка', 'классный', 'хлопковый', 'из-за', 'состав', 'ткань', 'очень', 'сильно', 'мяться', 'сложно', 'утюжить', 'второй', 'заказать']</t>
+          <t>['рубашка', 'утюжить', 'сильно', 'хлопковый', 'состав', 'ткань', 'мяться', 'заказать', 'очень', 'сложно', 'из-за', 'второй', 'классный']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[2, 34, 294, 147, 148, 10, 5, 149, 45, 295, 296, 150, 13]</t>
+          <t>[2, 278, 137, 279, 138, 10, 40, 13, 6, 280, 139, 140, 31]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -584,12 +614,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['рубашка', 'целое', 'неплохой', 'совет', 'продавец', 'выбрать', 'свой', 'параметр', 'ог110', 'от94', 'размер', '3хл', 'оказаться', 'просто', 'оверсайза', 'прям', 'огромный', 'хотя', 'это', 'косяк', 'существенный', 'минус', 'краситься', 'одежда', 'надеть', 'надевать', 'топ', 'фото', 'несколько', 'летний', 'день', 'носка', 'окраситься', 'область', 'мышка', 'спина', 'пятно', 'отстирываться', 'рубашка', 'советовать', 'мочь', 'носить', 'аккуратный', 'подбирать', 'правильный', 'низ']</t>
+          <t>['носка', 'мочь', 'отстирываться', 'ог110', 'хотя', 'фото', 'мышка', 'правильный', 'аккуратный', 'низ', 'косяк', 'день', 'пятно', 'рубашка', 'продавец', 'размер', 'совет', 'параметр', 'оказаться', 'прям', 'оверсайза', 'существенный', 'надевать', 'несколько', 'область', 'спина', 'краситься', 'одежда', 'свой', 'просто', 'окраситься', 'советовать', 'носить', 'подбирать', 'выбрать', 'топ', 'от94', 'минус', 'летний', 'огромный', 'надеть', 'целое', 'неплохой', '3хл', 'это']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[2, 72, 73, 151, 40, 152, 35, 96, 297, 298, 3, 299, 97, 14, 6, 98, 74, 99, 8, 300, 301, 75, 302, 303, 100, 153, 46, 11, 154, 304, 58, 101, 305, 306, 307, 155, 156, 157, 2, 44, 76, 9, 308, 158, 309, 144]</t>
+          <t>[87, 67, 141, 281, 88, 9, 282, 283, 284, 133, 285, 142, 143, 2, 36, 3, 144, 89, 90, 91, 5, 286, 145, 146, 287, 147, 288, 289, 32, 14, 290, 39, 8, 148, 149, 41, 291, 68, 292, 69, 92, 93, 70, 293, 11]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -607,12 +642,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['отличный', 'рубашка', 'выполнить', 'аккуратно', 'приятный', 'тело', 'слегка', 'просвечивать', 'бежевым/белый', 'бельё', 'угадать', 'размер', 'рост', '168', 'ог', '102', '80', 'взять', 'xxl', 'оочень', 'больший', 'рукав', 'просто', 'смешной', 'видимо', 'оверсайза', 'брать', 'маленький', 'обязательно', 'поздний', 'перезаказать']</t>
+          <t>['маленький', 'взять', 'рост', 'видимо', 'рубашка', 'ог', 'размер', 'просвечивать', 'смешной', 'бежевым/белый', 'оверсайза', 'отличный', 'оочень', '102', 'бельё', 'брать', 'поздний', 'обязательно', 'просто', 'приятный', 'аккуратно', 'рукав', 'выполнить', '80', 'xxl', 'тело', '168', 'больший', 'перезаказать', 'слегка', 'угадать']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[19, 2, 310, 159, 20, 59, 60, 22, 311, 312, 160, 3, 28, 313, 36, 314, 315, 23, 161, 316, 29, 37, 14, 317, 318, 6, 15, 43, 319, 320, 102]</t>
+          <t>[38, 21, 28, 294, 2, 42, 3, 22, 295, 296, 5, 17, 297, 298, 299, 15, 300, 301, 14, 18, 150, 43, 302, 303, 151, 51, 304, 33, 94, 52, 152]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -630,12 +670,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['очень', 'хороший', 'рубашка', 'ткань', 'приятный', 'хлопок', 'плотный', 'жёсткий', 'выглядеть', 'достойно', 'манжета', 'достаточно', 'широкий', '44', 'размер', 'заказать', 'м', 'оверсайза', 'запас', 's', 'заказать', 'очень', 'понравиться', 'стать', 'перезаказывать']</t>
+          <t>['достойно', 'запас', 'достаточно', 'широкий', 'рубашка', 'размер', 'оверсайза', 'манжета', 'понравиться', 'приятный', 'хороший', '44', 'очень', 'перезаказывать', 'жёсткий', 'ткань', 'хлопок', 'заказать', 'стать', 'выглядеть', 'плотный']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[5, 4, 2, 10, 20, 54, 162, 139, 103, 163, 164, 104, 61, 165, 3, 13, 33, 6, 321, 47, 13, 5, 18, 105, 322]</t>
+          <t>[153, 305, 95, 53, 2, 3, 5, 154, 16, 18, 4, 155, 6, 306, 130, 10, 48, 13, 96, 97, 156]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -653,12 +698,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['отличный', 'рубашка', 'ткань', 'приятный', 'тело', 'размер', 'соответствовать', 'пир', 'мир', 'покупка', 'довольный', 'спасибо']</t>
+          <t>['рубашка', 'приятный', 'размер', 'соответствовать', 'покупка', 'спасибо', 'отличный', 'довольный', 'ткань', 'пир', 'мир', 'тело']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[19, 2, 10, 20, 59, 3, 166, 167, 168, 30, 77, 24]</t>
+          <t>[2, 18, 3, 157, 29, 24, 17, 71, 10, 158, 159, 51]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -676,12 +726,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['это', 'просто', '100/10', 'нитка', 'торчать', 'тело', 'очень', 'приятный', 'заказать', 'размер', 'l', 'хотя', 'размер', 'm', 's', 'нормально', 'село', 'прям', 'хотеть', 'оверсайза', 'немного', 'просвечивать', 'критично']</t>
+          <t>['нормально', 'хотя', 'критично', 'размер', 'прям', 'оверсайза', 'просвечивать', 'просто', 'приятный', 'хотеть', 'село', 'торчать', 'очень', 'тело', 'немного', 'заказать', 'нитка', '100/10', 'это']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[8, 14, 169, 16, 17, 59, 5, 20, 13, 3, 53, 99, 3, 323, 47, 324, 69, 98, 21, 6, 48, 22, 78]</t>
+          <t>[307, 88, 72, 3, 91, 5, 22, 14, 18, 23, 63, 19, 6, 51, 44, 13, 20, 160, 11]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -699,12 +754,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['ужасный', 'рубаха', 'качество', 'клеёнка', 'прийти', 'ужасно', 'мятый', 'размер', 'это', 'отдельный', 'разговор', 'размер', '52', 'рубаха', 'наверное', '60-64', 'короче', 'общий', 'фото', 'карточка', 'продавец', 'естественно', 'возврат']</t>
+          <t>['наверное', 'общий', 'разговор', 'фото', 'естественно', '52', 'продавец', 'рубаха', 'размер', '60-64', 'отдельный', 'прийти', 'карточка', 'мятый', 'ужасно', 'возврат', 'ужасный', 'короче', 'клеёнка', 'это', 'качество']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[170, 171, 7, 325, 49, 172, 326, 3, 8, 327, 328, 3, 329, 171, 330, 331, 332, 106, 11, 333, 40, 173, 71]</t>
+          <t>[308, 98, 309, 9, 161, 310, 36, 311, 3, 312, 313, 45, 314, 315, 162, 66, 163, 316, 317, 11, 7]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -722,12 +782,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['вроде', 'нормальный', 'рубашка', 'брать', 'ххс', 'хс', 'выбрать', 'отличие', 'талия', 'хс', 'широкий', 'рукав', 'одинаковый', 'длина', 'взять', 'ххс', 'итог', 'шов', 'рукав', 'фото', 'принцип', 'лицевой', 'сторона', 'видно', 'бал', 'снижать', 'шов', '2', 'неделя', 'возвращать', 'деньга', 'некупить', 'товар']</t>
+          <t>['нормальный', 'шов', 'взять', 'деньга', 'фото', 'одинаковый', 'снижать', 'возвращать', 'отличие', 'широкий', 'рубашка', 'длина', 'принцип', 'итог', 'некупить', 'вроде', 'бал', 'брать', 'неделя', 'рукав', 'выбрать', 'лицевой', 'талия', 'видно', 'хс', 'товар', 'ххс', 'сторона']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[107, 174, 2, 15, 175, 176, 152, 334, 177, 176, 61, 37, 178, 179, 23, 175, 79, 62, 37, 11, 180, 181, 108, 182, 335, 336, 62, 109, 183, 337, 110, 338, 339]</t>
+          <t>[164, 73, 21, 99, 9, 165, 318, 319, 320, 53, 2, 166, 167, 74, 321, 100, 322, 15, 168, 43, 149, 169, 170, 171, 323, 324, 325, 101]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -745,12 +810,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['свой', 'деньга', 'рубашка', 'неплохой', 'оверсайза', 'немного', 'просвечивать', 'слишком', 'критично', 'спасибо']</t>
+          <t>['свой', 'рубашка', 'немного', 'спасибо', 'оверсайза', 'деньга', 'просвечивать', 'критично', 'неплохой', 'слишком']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[35, 110, 2, 73, 6, 48, 22, 57, 78, 24]</t>
+          <t>[32, 2, 44, 24, 5, 99, 22, 72, 70, 50]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -768,12 +838,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['кайф', 'рубашка', 'размер', '2', 'нравиться', 'носить', 'месяц', 'испачкать', 'ручка', 'всё', 'отстираться', 'достаточно', 'тонкий', 'поэтому', 'просвечивать', 'небольшой', 'количество', 'торчать', 'нитка']</t>
+          <t>['нравиться', 'рубашка', 'тонкий', 'нитка', 'небольшой', 'размер', 'кайф', 'месяц', 'испачкать', 'ручка', 'просвечивать', 'носить', 'торчать', 'всё', 'количество', 'отстираться', 'поэтому', 'достаточно']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[340, 2, 3, 109, 111, 9, 341, 342, 343, 27, 344, 104, 345, 346, 22, 184, 347, 17, 16]</t>
+          <t>[102, 2, 326, 20, 172, 3, 327, 328, 329, 330, 22, 8, 19, 27, 331, 332, 333, 95]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -791,12 +866,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['отличный', 'рубашка', 'размер', 'рекомендовать']</t>
+          <t>['рубашка', 'рекомендовать', 'размер', 'отличный']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[19, 2, 3, 185]</t>
+          <t>[2, 173, 3, 17]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -814,12 +894,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['хороший', 'рубашка', 'взять', 'размер', 'маленький', 'рост', '152', 'ог', '89', '66', '90.', 'качество', 'хороший', 'синтетик']</t>
+          <t>['рубашка', 'ог', '66', 'размер', 'маленький', '152', 'синтетик', '90.', 'взять', 'хороший', '89', 'рост', 'качество']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[4, 2, 23, 3, 43, 28, 348, 36, 186, 349, 350, 7, 4, 63]</t>
+          <t>[2, 42, 334, 3, 38, 335, 54, 336, 21, 4, 174, 28, 7]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -837,12 +922,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['брать', 'пара', 'размер', 'показаться', 'слегка', 'коротковатый', 'нитка', 'пуговица', 'торчать', 'разный', 'сторона', 'цепляться', 'вполне', 'неплохой', 'рубашка']</t>
+          <t>['рубашка', 'нитка', 'пара', 'цепляться', 'размер', 'пуговица', 'разный', 'сторона', 'торчать', 'коротковатый', 'неплохой', 'вполне', 'слегка', 'показаться', 'брать']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[15, 187, 3, 351, 60, 352, 16, 41, 17, 353, 108, 354, 188, 73, 2]</t>
+          <t>[2, 20, 175, 337, 3, 64, 338, 101, 19, 339, 70, 176, 52, 340, 15]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -860,12 +950,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['действительно', 'оверсайза', 'sка', '44-46', 'слегка', 'свободно', 'всё', 'хотеться', 'спасибо']</t>
+          <t>['спасибо', 'оверсайза', 'sка', 'свободно', 'хотеться', 'всё', 'слегка', 'действительно', '44-46']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[189, 6, 355, 356, 60, 80, 27, 357, 24]</t>
+          <t>[24, 5, 341, 75, 342, 27, 52, 177, 343]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -883,12 +978,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['заказывать', 'первый', 'качество', 'топовый', 'бельшемерить', 'маломерить', 'самый', 'цена', 'топ']</t>
+          <t>['бельшемерить', 'топ', 'качество', 'первый', 'заказывать', 'самый', 'маломерить', 'цена', 'топовый']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[38, 31, 7, 358, 359, 360, 50, 32, 46]</t>
+          <t>[344, 41, 7, 34, 35, 46, 345, 30, 346]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -906,12 +1006,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['размер', 'угадать', 'отказ', 'хороший', 'рубашка', 'советовать']</t>
+          <t>['рубашка', 'размер', 'хороший', 'советовать', 'отказ', 'угадать']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[3, 160, 361, 4, 2, 44]</t>
+          <t>[2, 3, 4, 39, 347, 152]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -929,12 +1034,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['рубашка', 'клёвый', 'оверсайза', 'хотеть', 'носить', 'по-разному', 'ткань', 'приятный', 'кожа', 'дышать']</t>
+          <t>['рубашка', 'приятный', 'хотеть', 'оверсайза', 'дышать', 'носить', 'по-разному', 'ткань', 'кожа', 'клёвый']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[2, 362, 6, 21, 9, 363, 10, 20, 364, 190]</t>
+          <t>[2, 18, 23, 5, 178, 8, 348, 10, 349, 350]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -952,12 +1062,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['рубашка', 'правда', 'большемерить', 'это', 'самый', 'носить', 'её', 'лето', 'второй', 'слой']</t>
+          <t>['рубашка', 'лето', 'её', 'большемерить', 'самый', 'носить', 'слой', 'второй', 'правда', 'это']</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[2, 112, 68, 8, 50, 9, 365, 191, 150, 81]</t>
+          <t>[2, 179, 351, 60, 46, 8, 76, 140, 103, 11]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -975,12 +1090,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['рубашка', 'качество', 'понравиться', 'размерный', 'сетка', 'выбирать', 'параметр', 'ог', '116', '98.', 'почитать', 'отзыв', 'заказать', 'ог', '110', '90', 'переживать', 'думать', 'пройда', 'грудь', 'получить', 'увидеть', 'огромный', '....', 'перезаказать', 'размер', 'маленький']</t>
+          <t>['почитать', 'увидеть', 'маленький', '116', 'сетка', '90', 'грудь', 'рубашка', 'ог', 'размер', 'параметр', '110', 'выбирать', 'понравиться', 'качество', 'получить', 'думать', 'пройда', 'отзыв', 'огромный', 'переживать', 'перезаказать', '....', 'заказать', 'размерный', '98.']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[2, 7, 18, 366, 367, 192, 96, 36, 368, 369, 193, 113, 13, 36, 370, 371, 372, 114, 373, 115, 93, 194, 74, 374, 102, 3, 43]</t>
+          <t>[180, 181, 38, 352, 353, 354, 104, 2, 42, 3, 89, 355, 182, 16, 7, 84, 105, 356, 106, 69, 357, 94, 358, 13, 359, 360]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -998,12 +1118,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['хороший', 'покупка', 'шикарный', 'рубашка', 'правда', 'прийти', 'опоздание', 'день', '06.09.23', 'немного', 'рассчитывать', 'получить', 'срок', '05.06', 'связь', 'первый', 'учебный', 'день', 'день', 'рождение', 'итог', 'испортить', 'день', 'пока', 'забирать', 'рубашка', 'найти', 'раздевалка', 'колечко', 'проба', 'послание', 'бог', 'извинение', 'вб', 'пакет', 'рубашка', 'выпасть', 'знать', 'счастливый']</t>
+          <t>['05.06', 'связь', 'рассчитывать', 'найти', 'выпасть', 'знать', 'день', 'раздевалка', 'рубашка', 'опоздание', 'пока', 'покупка', 'забирать', 'шикарный', 'итог', 'послание', 'проба', 'прийти', 'счастливый', 'пакет', 'получить', 'хороший', 'вб', 'извинение', '06.09.23', 'бог', 'немного', 'срок', 'учебный', 'первый', 'рождение', 'колечко', 'испортить', 'правда']</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[4, 30, 116, 2, 112, 49, 375, 58, 376, 48, 377, 93, 378, 379, 380, 31, 381, 58, 58, 382, 79, 383, 58, 195, 384, 2, 117, 385, 386, 387, 388, 389, 390, 391, 196, 2, 392, 90, 393]</t>
+          <t>[361, 362, 363, 183, 364, 83, 142, 365, 2, 366, 184, 29, 367, 107, 74, 368, 369, 45, 370, 185, 84, 4, 371, 372, 373, 374, 44, 375, 376, 34, 377, 378, 379, 103]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1146,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['думать', 'больший', 'носить', 'размер', 'м', 'размер', 'l', 'подойти', 'спасибо', 'большой']</t>
+          <t>['подойти', 'большой', 'размер', 'спасибо', 'думать', 'носить', 'больший']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[114, 29, 9, 3, 33, 3, 53, 56, 24, 89]</t>
+          <t>[49, 80, 3, 24, 105, 8, 33]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1044,12 +1174,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['ткань', 'приятный', 'сшить', 'качественно.рекомендовать', 'покупка']</t>
+          <t>['приятный', 'покупка', 'сшить', 'ткань', 'качественно.рекомендовать']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[10, 20, 197, 394, 30]</t>
+          <t>[18, 29, 186, 10, 380]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1067,12 +1202,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['немного', 'просвечивать', 'фасон', 'хотеть', 'плюс', 'несильно', 'мяться', 'цена', 'приятный']</t>
+          <t>['немного', 'приятный', 'хотеть', 'просвечивать', 'несильно', 'мяться', 'фасон', 'плюс', 'цена']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[48, 22, 51, 21, 395, 396, 45, 32, 20]</t>
+          <t>[44, 18, 23, 22, 381, 40, 55, 382, 30]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1090,12 +1230,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['брак', 'качество', 'ткань', 'неплохой', 'оценить', 'фасон', 'заказывать', 'свой', 'размер.вообщий', 'нужно', 'мерить']</t>
+          <t>['свой', 'мерить', 'заказывать', 'размер.вообщий', 'брак', 'ткань', 'нужно', 'оценить', 'неплохой', 'фасон', 'качество']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[198, 7, 10, 73, 397, 51, 38, 35, 398, 199, 200]</t>
+          <t>[32, 187, 35, 383, 188, 10, 189, 384, 70, 55, 7]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1258,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['материал', 'понравиться', 'смотреться', 'очень', 'дёшево', 'просвечивать', 'петля', 'пуговица', 'прометать', 'вообще', 'модель', 'рубашка', 'вид']</t>
+          <t>['петля', 'вообще', 'рубашка', 'вид', 'прометать', 'модель', 'материал', 'просвечивать', 'дёшево', 'смотреться', 'очень', 'пуговица', 'понравиться']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[42, 18, 39, 5, 399, 22, 91, 41, 25, 118, 2, 201]</t>
+          <t>[124, 26, 2, 190, 385, 108, 37, 22, 386, 47, 6, 64, 16]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1286,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['это', 'любимый', 'вещь', 'гардероб', 'носить', 'угодный', 'хотеть', 'спасибо']</t>
+          <t>['хотеть', 'спасибо', 'носить', 'любимый', 'гардероб', 'вещь', 'это', 'угодный']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[8, 119, 26, 202, 9, 21, 24]</t>
+          <t>[23, 24, 8, 109, 191, 25, 11, 387]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1314,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['рубашка', 'хороший', 'решить', 'брать', 'просто', '10/10', 'смотреть', 'фото']</t>
+          <t>['просто', 'рубашка', 'хороший', 'решить', 'фото', '10/10', 'брать', 'смотреть']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[2, 4, 88, 15, 14, 12, 11]</t>
+          <t>[14, 2, 4, 81, 9, 388, 15, 12]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1182,12 +1342,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['блузка', 'фирма', 'заказывать', 'первый', 'брать', 'белый', 'ещ', 'ч', 'рный', 'блузка', 'восторг']</t>
+          <t>['ещ', 'белый', 'первый', 'заказывать', 'рный', 'блузка', 'фирма', 'восторг', 'брать']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[203, 38, 31, 15, 64, 203, 204]</t>
+          <t>[389, 56, 34, 35, 390, 391, 392, 192, 15]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1205,12 +1370,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['рубашка', 'хороший', 'выбирать', 'свой', 'размер', 'таблица', 'размер', 'оказаться', 'большеватый', 'качество', 'хороший', 'рубашка', 'целое', 'отличный']</t>
+          <t>['рубашка', 'свой', 'размер', 'оказаться', 'хороший', 'отличный', 'большеватый', 'целое', 'таблица', 'выбирать', 'качество']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[2, 4, 192, 35, 3, 3, 97, 205, 7, 4, 2, 72, 19]</t>
+          <t>[2, 32, 3, 90, 4, 17, 193, 93, 393, 182, 7]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1398,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['отличный', 'классический', 'рубашка', 'причём', 'отсечь', 'хороший', 'качество', 'лишний', 'элемент', 'смотреть', 'фото']</t>
+          <t>['рубашка', 'причём', 'хороший', 'классический', 'отличный', 'фото', 'отсечь', 'лишний', 'элемент', 'смотреть', 'качество']</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[19, 65, 2, 4, 7, 12, 11]</t>
+          <t>[2, 394, 4, 57, 17, 9, 395, 396, 397, 12, 7]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1251,12 +1426,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['качество', 'вроде', 'нормальный', 'заказывать', 'широкий', 'оно', 'оказаться', 'намного', 'дать', 'покет']</t>
+          <t>['нормальный', 'намного', 'дать', 'качество', 'оказаться', 'заказывать', 'оно', 'вроде', 'покет', 'широкий']</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[7, 107, 174, 38, 61, 97]</t>
+          <t>[164, 398, 399, 7, 90, 35, 100, 53]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0]</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1454,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['ткань', 'приятный', 'плечо', 'широкий', 'очень', 'комфортный', '100/10']</t>
+          <t>['приятный', 'плечо', 'ткань', 'очень', '100/10', 'комфортный', 'широкий']</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[10, 20, 61, 5, 169]</t>
+          <t>[18, 10, 6, 160, 53]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1297,12 +1482,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['сделать', 'возврат', 'деньга', 'вернуть', 'сумма', '1875.', 'прикреплять', 'ответ', 'обращение']</t>
+          <t>['прикреплять', 'сделать', 'деньга', 'вернуть', 'ответ', 'возврат', '1875.', 'сумма', 'обращение']</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[71, 110, 92]</t>
+          <t>[99, 82, 66]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1320,12 +1510,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['рубашка', 'очень', 'свободный', 'хотеть', 'качество', 'понравиться']</t>
+          <t>['рубашка', 'хотеть', 'свободный', 'очень', 'понравиться', 'качество']</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[2, 5, 82, 21, 7, 18]</t>
+          <t>[2, 23, 77, 6, 16, 7]</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1343,12 +1538,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>['очень', 'хороший', 'вещица', 'давно', 'искать', 'рубашка', 'приятный', 'тело', 'нужный', 'модель', 'прийти', 'небольшой', 'коричневый', 'пятно']</t>
+          <t>['пятно', 'рубашка', 'давно', 'приятный', 'небольшой', 'прийти', 'искать', 'модель', 'коричневый', 'хороший', 'нужный', 'очень', 'вещица', 'тело']</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[5, 4, 206, 2, 20, 59, 118, 49, 184, 156]</t>
+          <t>[143, 2, 18, 172, 45, 194, 108, 4, 6, 51]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1566,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>['доставить', 'перезаказать', 'размер', 'слишком', 'овера', 'овера', 'сайза']</t>
+          <t>['овера', 'размер', 'сайза', 'доставить', 'перезаказать', 'слишком']</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[102, 3, 57, 207, 207]</t>
+          <t>[3, 94, 50]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1389,12 +1594,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['хороший', 'рубашка', 'носить', 'работа', 'очень', 'довольный', 'покупка', 'смотреть', 'фото']</t>
+          <t>['рубашка', 'покупка', 'хороший', 'фото', 'носить', 'довольный', 'очень', 'работа', 'смотреть']</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[4, 2, 9, 5, 77, 30, 12, 11]</t>
+          <t>[2, 29, 4, 9, 8, 71, 6, 12]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1412,12 +1622,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['очень', 'понравиться', 'просто', 'белоснежный', 'хотеть', '.спасибо']</t>
+          <t>['просто', 'хотеть', 'очень', 'белоснежный', '.спасибо', 'понравиться']</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[5, 18, 14, 21]</t>
+          <t>[14, 23, 6, 16]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1435,12 +1650,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['рубашка', 'супер', 'простой', 'классический', 'нужно', 'смотреть', 'фото']</t>
+          <t>['супер', 'рубашка', 'классический', 'фото', 'нужно', 'простой', 'смотреть']</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[2, 66, 65, 199, 12, 11]</t>
+          <t>[58, 2, 57, 9, 189, 12]</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1458,12 +1678,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['симпатичный', 'рубашка', 'недорого', 'стоить', 'жалко', 'рукав', 'заузить']</t>
+          <t>['рубашка', 'рукав', 'симпатичный', 'стоить', 'заузить', 'жалко', 'недорого']</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[2, 37]</t>
+          <t>[2, 43]</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1481,12 +1706,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['очень', 'крутой', 'рубашка', 'подходить', 'любой', 'образ']</t>
+          <t>['рубашка', 'образ', 'подходить', 'крутой', 'очень', 'любой']</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[5, 2, 120, 208, 209]</t>
+          <t>[2, 195, 110, 6, 196]</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1504,12 +1734,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['вообще', 'носить', '44', 'почитать', 'отзыв', 'взять', '42', 'прогадать', 'качество', 'отличный', 'синтетик', 'качество', 'ткань', 'прямо', 'очень', 'нравиться', 'выглядеть', 'мужской', 'короткий', 'купить', 'март', 'никак', 'мочь', 'придумать', 'носить', 'смотреться', 'классика', 'крайний', 'мера', 'понравиться', 'примерка', 'заинтересовать', 'фасон', 'голова', 'картинка', 'образ', 'сложиться', 'наступить', 'лето', 'рубашка', 'подходить', 'просто', 'всё', 'шорты', 'юбка', 'джинсы', 'заправить', 'завязать', 'надеть', 'поверх', 'топ', 'любой', 'вариант', 'смотреться', 'великолепно', 'продавец', 'огромный', 'спасибо', 'универсальный', 'вещь']</t>
+          <t>['юбка', 'почитать', 'мочь', 'спасибо', 'примерка', 'взять', 'универсальный', 'март', 'заинтересовать', 'завязать', 'мужской', 'поверх', 'любой', 'голова', 'придумать', 'нравиться', 'великолепно', 'рубашка', 'продавец', 'синтетик', 'короткий', 'отличный', 'классика', 'джинсы', 'прогадать', 'наступить', 'шорты', 'понравиться', 'просто', 'лето', 'картинка', 'крайний', 'носить', '44', 'образ', 'подходить', 'никак', 'очень', 'фасон', 'купить', 'мера', 'вообще', 'сложиться', 'заправить', 'топ', '42', 'отзыв', 'прямо', 'огромный', 'ткань', 'надеть', 'смотреться', 'всё', 'вещь', 'выглядеть', 'вариант', 'качество']</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[25, 9, 165, 193, 113, 23, 7, 19, 63, 7, 10, 5, 111, 103, 121, 138, 76, 9, 39, 210, 18, 211, 51, 212, 209, 191, 2, 120, 14, 27, 213, 122, 100, 123, 46, 208, 39, 40, 74, 24, 214, 26]</t>
+          <t>[111, 180, 67, 24, 197, 21, 198, 112, 196, 102, 2, 36, 54, 17, 199, 16, 14, 179, 200, 8, 155, 195, 110, 128, 6, 55, 113, 201, 26, 41, 106, 69, 10, 92, 47, 27, 25, 97, 7]</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1527,12 +1762,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>['шов', 'ровный', 'нитка', 'торчать', 'хороший', 'рубашка', 'смотреть', 'фото']</t>
+          <t>['рубашка', 'шов', 'смотреть', 'хороший', 'фото', 'торчать', 'нитка', 'ровный']</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[62, 124, 16, 17, 4, 2, 12, 11]</t>
+          <t>[2, 73, 12, 4, 9, 19, 20, 114]</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1550,12 +1790,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>['рубашка', 'просто', 'ашалеть', 'удобный', 'красивый', 'смотреть', 'фото']</t>
+          <t>['просто', 'рубашка', 'красивый', 'удобный', 'фото', 'ашалеть', 'смотреть']</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[2, 14, 83, 12, 11]</t>
+          <t>[14, 2, 78, 9, 12]</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1818,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>['классический', 'белый', 'рубашка', 'восторг']</t>
+          <t>['восторг', 'рубашка', 'белый', 'классический']</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[65, 64, 2, 204]</t>
+          <t>[192, 2, 56, 57]</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1596,12 +1846,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>['очень', 'нравиться', 'рубашка', 'классный', 'советовать', 'смотреть', 'фото']</t>
+          <t>['нравиться', 'рубашка', 'советовать', 'фото', 'очень', 'классный', 'смотреть']</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[5, 111, 2, 34, 44, 12, 11]</t>
+          <t>[102, 2, 39, 9, 6, 31, 12]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1874,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['ог', '88', '70', 'сесть', 'оверсайза', 'качество', 'пошив', 'хороший']</t>
+          <t>['ог', '70', 'сесть', 'оверсайза', 'хороший', '88', 'пошив', 'качество']</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[36, 215, 216, 6, 7, 141, 4]</t>
+          <t>[42, 202, 203, 5, 4, 127, 7]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1642,12 +1902,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['рубпшка', 'хороший', 'легко', 'гладиться', 'картинка', 'единственный', 'минус', 'дырочка', 'пуговца', 'плохо', 'обработанный']</t>
+          <t>['минус', 'картинка', 'обработанный', 'единственный', 'пуговца', 'хороший', 'дырочка', 'гладиться', 'легко', 'рубпшка', 'плохо']</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[4, 84, 125, 212, 126, 75]</t>
+          <t>[68, 200, 115, 4, 116, 79]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1930,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['ужасный', 'рубашка', 'чистый', 'синтетик', 'хлопок', 'вообще', 'ощущение', 'пакет', 'надевать', 'бедро', '54', 'размер', '172', 'смотреть', 'просто', 'ужасно']</t>
+          <t>['бедро', 'рубашка', 'вообще', 'синтетик', '172', 'размер', 'просто', '54', 'ужасно', 'пакет', 'чистый', 'надевать', 'ощущение', 'ужасный', 'хлопок', 'смотреть']</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[170, 2, 63, 54, 25, 196, 153, 3, 12, 14, 172]</t>
+          <t>[2, 26, 54, 3, 14, 162, 185, 145, 163, 48, 12]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1688,12 +1958,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>['прийти', 'грязный', 'рубашка', 'размер', 'м', 'вместо', 's']</t>
+          <t>['рубашка', 'размер', 'прийти', 'вместо', 'грязный']</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[49, 2, 3, 33, 47]</t>
+          <t>[2, 3, 45]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1986,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>['супер', 'мег', 'оверсайза', 'брать', 'свой', 'размер', 'лучш']</t>
+          <t>['супер', 'свой', 'размер', 'мег', 'оверсайза', 'лучш', 'брать']</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[66, 6, 15, 35, 3]</t>
+          <t>[58, 32, 3, 5, 15]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1734,12 +2014,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['подбирать', 'рубашка', 'шорты', 'радоваться', 'идеально', 'подойти', 'цена', 'отличный', 'единственный', 'пуговица', 'поменять', 'белые', 'первый', 'стирка', 'произойти', 'видеть', 'фото', 'стирать', 'тёплый', 'вода', 'вручную', 'кстати', 'время', 'носка', 'белые', 'вещь', 'который', 'соприкасаться', 'рубашка', 'окрашиваться', 'иметь', 'вид']</t>
+          <t>['подойти', 'который', 'фото', 'идеально', 'окрашиваться', 'белые', 'рубашка', 'вид', 'тёплый', 'иметь', 'отличный', 'шорты', 'соприкасаться', 'произойти', 'стирка', 'видеть', 'стирать', 'подбирать', 'время', 'кстати', 'вода', 'вручную', 'единственный', 'первый', 'поменять', 'пуговица', 'вещь', 'цена', 'носка', 'радоваться']</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[158, 2, 213, 217, 56, 32, 19, 126, 41, 127, 31, 52, 218, 11, 101, 127, 26, 55, 2, 201]</t>
+          <t>[49, 61, 9, 204, 205, 2, 190, 17, 199, 206, 59, 148, 115, 34, 64, 25, 30, 87]</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1762,7 +2047,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[13, 219]</t>
+          <t>[13, 207]</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1780,12 +2070,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>['классный', 'рубашка', 'качество', 'хороший']</t>
+          <t>['классный', 'рубашка', 'хороший', 'качество']</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[34, 2, 7, 4]</t>
+          <t>[31, 2, 4, 7]</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1803,12 +2098,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>['носить', 'рубашка', 'неделя', 'мочь', 'сказать', 'достаточно', 'удобный', 'сшить', 'красиво', 'сидеть', 'огромный', 'минус', 'знать', 'причина', 'происходить', 'возможно', 'из-за', 'особенность', 'материал', 'стирка', 'рубашка', 'сильно', 'помяться', 'стать', 'вообще', 'невозможно', 'отгладить', 'полчаса', 'мучение', 'утюг', 'полчаса', 'пытка', 'отпариватель', 'итог', 'видно', 'фото', 'оставить', 'это', 'дело', 'утро', 'опоздать', 'везде', 'считать', 'гладить', 'отпаривать', 'рубашка', 'преувеличение', 'целый', 'час', 'это', 'издевательство', 'утюг', 'это', 'первый', 'рубашка', 'который', 'произойти', 'стирка', 'замечательный', 'дело', 'это', 'как-то', 'исправить']</t>
+          <t>['особенность', 'мочь', 'который', 'фото', 'знать', 'гладить', 'возможно', 'утро', 'достаточно', 'дело', 'пытка', 'рубашка', 'исправить', 'отпариватель', 'сшить', 'отпаривать', 'происходить', 'сидеть', 'удобный', 'везде', 'сказать', 'отгладить', 'полчаса', 'оставить', 'целый', 'итог', 'час', 'издевательство', 'неделя', 'произойти', 'красиво', 'материал', 'стирка', 'опоздать', 'преувеличение', 'носить', 'мучение', 'из-за', 'невозможно', 'причина', 'видно', 'вообще', 'утюг', 'минус', 'как-то', 'помяться', 'считать', 'первый', 'огромный', 'замечательный', 'сильно', 'это', 'стать']</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[9, 2, 183, 76, 85, 104, 83, 197, 220, 86, 74, 75, 90, 221, 147, 42, 52, 2, 149, 105, 25, 222, 223, 222, 79, 182, 11, 70, 8, 128, 224, 2, 8, 223, 8, 31, 2, 55, 218, 52, 128, 8]</t>
+          <t>[67, 61, 9, 83, 208, 209, 95, 210, 2, 186, 125, 78, 117, 65, 74, 168, 206, 211, 37, 59, 8, 139, 171, 26, 68, 34, 69, 137, 11, 96]</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1826,12 +2126,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>['классный', 'подойти', 'смотреть', 'фото']</t>
+          <t>['подойти', 'классный', 'фото', 'смотреть']</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[34, 56, 12, 11]</t>
+          <t>[49, 31, 9, 12]</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1849,12 +2154,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>['классный', 'рубашка', 'немного', 'просвечивать']</t>
+          <t>['классный', 'просвечивать', 'рубашка', 'немного']</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[34, 2, 48, 22]</t>
+          <t>[31, 22, 2, 44]</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1872,12 +2182,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>['афигенный', 'рубашка', 'немного', 'большеватый']</t>
+          <t>['рубашка', 'афигенный', 'большеватый', 'немного']</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[2, 48, 205]</t>
+          <t>[2, 193, 44]</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1895,12 +2210,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>['классный', 'рубашка', 'очень', 'удобный', 'смотреть', 'фото']</t>
+          <t>['рубашка', 'удобный', 'фото', 'очень', 'классный', 'смотреть']</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[34, 2, 5, 83, 12, 11]</t>
+          <t>[2, 78, 9, 6, 31, 12]</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1918,12 +2238,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>['очень', 'стильно', 'смотреться', 'качество', 'супер']</t>
+          <t>['супер', 'стильно', 'смотреться', 'очень', 'качество']</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[5, 39, 7, 66]</t>
+          <t>[58, 47, 6, 7]</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1941,12 +2266,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>['отличный', 'рубашка', 'приятный', 'тело', 'купить', '3', 'штука', 'ребёнок', 'школа', 'хороший', 'фасон', 'свободный', 'крой', 'идеально', 'отстирываться', 'ткань', 'стирка', 'мяться', 'видеообзор', 'оставить', 'свой', 'инстаграм', 'sofi_prostyle', 'подписываться', 'смотреть', 'обзор', 'качественный', 'вещь', 'wildberries']</t>
+          <t>['sofi_prostyle', 'отстирываться', 'подписываться', 'мяться', 'крой', 'идеально', 'качественный', 'рубашка', 'инстаграм', 'штука', 'отличный', 'оставить', 'свой', 'приятный', 'свободный', 'ребёнок', 'стирка', 'хороший', 'wildberries', 'фасон', 'купить', 'тело', 'школа', 'ткань', 'обзор', 'видеообзор', 'вещь', 'смотреть']</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[19, 2, 20, 59, 121, 225, 4, 51, 82, 217, 157, 10, 52, 45, 70, 35, 12, 26]</t>
+          <t>[141, 40, 204, 2, 17, 65, 32, 18, 77, 59, 4, 55, 113, 51, 212, 10, 25, 12]</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1964,12 +2294,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>['ващий', 'супер', 'качество', 'огонь', 'просвечивать', 'слишком', 'больший', 'xs-s', 'брать', 'м.', 'добрый', 'милый', 'прекрасный', 'рубашка', 'ещё', 'вопросик', 'рубашка', 'inst', 'тг', 'slavnichek']</t>
+          <t>['супер', 'огонь', 'прекрасный', 'добрый', 'рубашка', 'просвечивать', 'ващий', 'милый', 'брать', 'тг', 'xs-s', 'slavnichek', 'качество', 'м.', 'ещё', 'больший', 'вопросик', 'слишком', 'inst']</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[66, 7, 226, 22, 57, 29, 15, 227, 129, 2, 94, 2, 228]</t>
+          <t>[58, 213, 118, 2, 22, 15, 7, 214, 85, 33, 50, 215]</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1987,12 +2322,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>['шикарный', 'базовый', 'белый', 'рубашка', 'придраться', 'прошить', 'аккуратно', 'никакой', 'торчать', 'нитка', 'заказать', 'отсюда', 'год', 'назад', 'сей', 'пора', 'идеальный', 'состояние']</t>
+          <t>['назад', 'рубашка', 'отсюда', 'белый', 'идеальный', 'состояние', 'аккуратно', 'базовый', 'торчать', 'прошить', 'год', 'сей', 'заказать', 'шикарный', 'нитка', 'придраться', 'никакой', 'пора']</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[116, 229, 64, 2, 230, 159, 231, 17, 16, 13]</t>
+          <t>[2, 56, 150, 216, 19, 217, 13, 107, 20, 218]</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2010,12 +2350,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>['рубашка', 'прекрасный', 'слегка', 'большемерить', 'совершить', 'ошибка', 'заказать', 'пара', 'размер', 'изначально', 'оверсайза', 'внимательный']</t>
+          <t>['рубашка', 'слегка', 'ошибка', 'пара', 'размер', 'большемерить', 'оверсайза', 'прекрасный', 'заказать', 'совершить', 'изначально', 'внимательный']</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[2, 129, 60, 68, 13, 187, 3, 6]</t>
+          <t>[2, 52, 175, 3, 60, 5, 118, 13]</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2378,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>['рубашка', 'очень', 'оверсайза', 'прийти', 'прошить', 'недодырка', 'рукав']</t>
+          <t>['рубашка', 'прийти', 'недодырка', 'оверсайза', 'рукав', 'прошить', 'очень']</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[2, 5, 6, 49, 230, 37]</t>
+          <t>[2, 45, 5, 43, 217, 6]</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2406,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>['700', 'рубль', 'отличный', 'рубашка', 'носить', 'обычно', 'размер', 's', 'заказать', 'xs', 'всё', 'подойти', '70', 'грудь', '2', 'размер', 'носить', 'всяко', 'разно', 'классический', 'рубашка', 'верхний', 'слой', 'состав', '95', '%', 'хлопок', 'гладиться', 'легко', 'сходить', 'вчера', '+30', 'вспотеть', 'продуваться', 'замёрзнуть', 'охлаждать', 'кинотеатр', 'пройма', 'рукав', 'лицевой', 'сторона', 'торчать', 'нитка', 'оверлока', 'просто', 'обрезать', 'цена', 'критичный', 'дефект', 'общий', 'спасибо', 'большой', 'продавец', 'довольный', 'рекомендовать', 'покупка', 'слегка', 'просвечивать']</t>
+          <t>['подойти', 'большой', 'общий', 'спасибо', 'xs', 'состав', 'гладиться', 'легко', 'грудь', 'рубашка', 'продавец', 'размер', 'покупка', 'пройма', 'обрезать', 'просвечивать', 'отличный', 'разно', 'дефект', 'верхний', 'просто', 'обычно', '70', 'всяко', 'замёрзнуть', 'вчера', 'классический', 'носить', 'продуваться', 'рукав', '+30', 'торчать', 'оверлока', 'довольный', 'лицевой', 'рубль', '95', 'слегка', 'рекомендовать', 'сходить', 'критичный', 'кинотеатр', 'охлаждать', '700', 'хлопок', 'слой', 'заказать', 'всё', 'вспотеть', 'нитка', 'сторона', 'цена']</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[19, 2, 9, 3, 47, 13, 136, 27, 56, 215, 115, 109, 3, 9, 65, 2, 232, 81, 148, 54, 125, 84, 37, 181, 108, 17, 16, 14, 145, 32, 106, 24, 89, 40, 77, 185, 30, 60, 22]</t>
+          <t>[49, 80, 98, 24, 122, 138, 116, 79, 104, 2, 36, 3, 29, 135, 22, 17, 219, 14, 202, 57, 8, 43, 19, 71, 169, 52, 173, 48, 76, 13, 27, 20, 101, 30]</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2434,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>['обычный', 'размер', 'м', 'тк', 'любить', 'оверсайза', 'рост', '180', 'решить', 'заказать', 'l', 'xl', 'данные', 'фотография', 'размер', 'xl', 'устраивать', 'рубашка', 'смотреться', 'качество', 'хороший', 'всё', 'понравиться', 'спасибо']</t>
+          <t>['спасибо', 'решить', 'рост', 'рубашка', 'размер', 'оверсайза', 'xl', 'тк', 'понравиться', 'хороший', '180', 'данные', 'любить', 'фотография', 'обычный', 'заказать', 'смотреться', 'всё', 'устраивать', 'качество']</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[3, 33, 130, 6, 28, 88, 13, 53, 131, 3, 131, 2, 39, 7, 4, 27, 18, 24]</t>
+          <t>[24, 81, 28, 2, 3, 5, 220, 16, 4, 119, 13, 47, 27, 7]</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2102,12 +2462,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>['прикольный', 'рубашка', 'понравиться']</t>
+          <t>['рубашка', 'понравиться', 'прикольный']</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[146, 2, 18]</t>
+          <t>[2, 16, 136]</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2125,12 +2490,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>['полный', 'разочарование', 'рубашка', 'надеть', 'покупка', 'рубашка', 'постирать', 'новый', 'вещь', 'обнаружить', 'белые', 'развод', 'подумать', 'прополоскаться', 'следовать', 'итог', 'полоскать', 'отдельно', 'простирывать', 'бережный', '4', 'каждый', 'развод', 'новый', 'место', 'встречать', 'вообще', 'впервые', 'это', 'жуть']</t>
+          <t>['жуть', 'полоскать', 'постирать', 'впервые', 'следовать', 'белые', 'рубашка', 'встречать', 'покупка', 'развод', 'простирывать', 'прополоскаться', 'итог', 'отдельно', 'каждый', 'бережный', 'полный', 'разочарование', 'вообще', 'надеть', 'подумать', 'вещь', 'место', 'это', 'обнаружить', 'новый']</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[2, 100, 30, 2, 233, 26, 127, 234, 79, 140, 234, 233, 142, 25, 8]</t>
+          <t>[205, 2, 29, 74, 129, 26, 92, 25, 134, 11]</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2148,12 +2518,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>['рубашка', 'хороший', 'качество', 'заказывать', 'всё', 'отлично', 'заказать', 'размер', 'l', 'рубашка', 'прийти', 'больший', 'размер', 'хотя', 'бирка', 'указать', 'понимать', 'ориентироваться', 'размер', 'написать', 'дело', 'соответствовать', 'делать', 'возврат']</t>
+          <t>['соответствовать', 'хотя', 'понимать', 'дело', 'рубашка', 'размер', 'прийти', 'качество', 'хороший', 'отлично', 'ориентироваться', 'написать', 'заказывать', 'указать', 'возврат', 'больший', 'заказать', 'всё', 'делать', 'бирка']</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[2, 4, 7, 38, 27, 67, 13, 3, 53, 2, 49, 29, 3, 99, 3, 128, 166, 71]</t>
+          <t>[157, 88, 210, 2, 3, 45, 7, 4, 62, 35, 66, 33, 13, 27]</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2171,12 +2546,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>['хороший', 'удобный', 'рубашка', 'школа', 'самый']</t>
+          <t>['рубашка', 'самый', 'хороший', 'удобный', 'школа']</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[4, 83, 2, 225, 50]</t>
+          <t>[2, 46, 4, 78, 212]</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2574,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>['шов', 'ровный', 'никакой', 'торчать', 'нитка', 'найти', 'посадка', 'оверсайза', 'пока', 'читать', 'отзыв', 'бояться', 'взять', 'слишком', 'оверсайза', 'впритык', 'довериться', 'чувство', 'заказать', 'свой', 's', 'ог', '78', '67', '89', 'выглядеть', 'мочь', 'увидеть', 'единственный', 'найти', 'лайкра', 'рубашка', 'тянуться', 'это', 'минус', 'брать', 'вечерний', 'прогулка', 'покупка', 'довольный', 'продавец', 'удача']</t>
+          <t>['шов', 'мочь', 'увидеть', 'найти', 'взять', 'пока', 'рубашка', 'ог', 'это', 'продавец', 'покупка', 'оверсайза', 'прогулка', '78', 'впритык', 'никакой', 'брать', 'свой', 'удача', 'читать', 'бояться', 'торчать', 'довольный', 'чувство', 'вечерний', 'посадка', 'лайкра', 'минус', 'единственный', 'отзыв', 'тянуться', '89', 'заказать', 'довериться', '67', 'нитка', 'выглядеть', 'слишком', 'ровный']</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[62, 124, 231, 17, 16, 117, 6, 195, 113, 23, 57, 6, 13, 35, 47, 36, 186, 103, 76, 194, 126, 117, 2, 87, 8, 75, 15, 30, 77, 40]</t>
+          <t>[73, 67, 181, 183, 21, 184, 2, 42, 11, 36, 29, 5, 218, 15, 32, 19, 71, 68, 115, 106, 131, 174, 13, 20, 97, 50, 114]</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2217,12 +2602,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>['хороший', 'базовый', 'рубашка', 'легко', 'поддаваться', 'глажка', 'мяться', 'носка', 'влюбить', 'пир', 'мир', 'торчать', 'кой', 'нитка', 'цена', 'это', 'вполне', 'естественно']</t>
+          <t>['рубашка', 'нитка', 'это', 'хороший', 'поддаваться', 'базовый', 'глажка', 'торчать', 'мяться', 'легко', 'вполне', 'влюбить', 'мир', 'естественно', 'цена', 'кой', 'носка', 'пир']</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[4, 229, 2, 84, 45, 101, 167, 168, 17, 235, 16, 32, 8, 188, 173]</t>
+          <t>[2, 20, 11, 4, 216, 19, 40, 79, 176, 159, 161, 30, 221, 87, 158]</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2240,12 +2630,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>['самый', 'любимый', 'вещь', 'гардероб', 'очень', 'советовать', 'размер', 'м.', 'заказывать', 'черную-прийти', 'вообще', 'рубашка', 'мерить', 'стать', 'вернуть', 'обратно']</t>
+          <t>['вообще', 'рубашка', 'мерить', 'размер', 'м.', 'самый', 'советовать', 'заказывать', 'черную-прийти', 'вернуть', 'любимый', 'обратно', 'очень', 'гардероб', 'вещь', 'стать']</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[50, 119, 26, 202, 5, 44, 3, 227, 38, 25, 2, 200, 105, 92]</t>
+          <t>[26, 2, 187, 3, 214, 46, 39, 35, 82, 109, 6, 191, 25, 96]</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2263,12 +2658,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>['рубашка', 'хороший', 'замутиться', 'гладить', 'оооооий', 'говорить', 'больший', 'это', 'правда', 'заказать', '4xl', 'xxl', 'взять', 'маленький', 'понравиться', 'галстук', 'брюки', 'лофер', 'огонь']</t>
+          <t>['огонь', 'маленький', 'говорить', 'взять', 'гладить', 'рубашка', 'брюки', '4xl', 'лофер', 'галстук', 'понравиться', 'хороший', 'xxl', 'оооооий', 'замутиться', 'больший', 'заказать', 'правда', 'это']</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[2, 4, 224, 29, 8, 112, 13, 161, 23, 43, 18, 236, 226]</t>
+          <t>[213, 38, 21, 208, 2, 222, 16, 4, 151, 33, 13, 103, 11]</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2686,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>['пожалеть', 'оставить', 'смотреться', 'костюм', 'медсестра', 'заправлять', 'весь', 'топорщица', 'носить', 'завязывать', 'запах', 'думать', 'отгладиться', 'облязаться', 'синтетик']</t>
+          <t>['пожалеть', 'медсестра', 'облязаться', 'топорщица', 'синтетик', 'заправлять', 'весь', 'думать', 'носить', 'оставить', 'завязывать', 'смотреться', 'костюм', 'запах', 'отгладиться']</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[70, 39, 237, 95, 9, 238, 114, 63]</t>
+          <t>[54, 223, 86, 105, 8, 65, 47, 224]</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2317,6 +2722,11 @@
           <t>[24]</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2332,12 +2742,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>['цена', 'вообще', 'пушка']</t>
+          <t>['цена', 'пушка', 'вообще']</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[32, 25, 239]</t>
+          <t>[30, 225, 26]</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2355,12 +2770,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>['целое', 'цена', 'очень', 'запах', 'аллергик', 'выпить', 'таблетка', 'сразу', 'чесаться', 'кол-вы', 'краска', 'стирка', 'гуд', 'писать', 'больший', 'больший', 'это', 'просто', 'фасон', 'оверсайза', 'параметр', 'ог108', 'от90', 'об105', 'рост', '153', 'носить', '50-52р', '3xl', 'самый', 'поскольку', 'любить', 'свободно', 'загиб', 'футболку/платья', 'хотеть', 'прилегать', 'брать', '2xl', 'поскольку', 'рукав', 'действительно', 'широкий', 'это', 'фасон', 'целое', 'очень', 'достойно', 'стоимость', '750-900р', 'пойти', 'белый']</t>
+          <t>['от90', 'сразу', 'достойно', 'кол-вы', 'футболку/платья', 'рост', '3xl', 'широкий', '750-900р', 'гуд', 'параметр', 'таблетка', 'оверсайза', '153', 'загиб', 'выпить', '50-52р', 'прилегать', 'запах', 'брать', 'поскольку', 'просто', 'хотеть', 'чесаться', 'стирка', 'краска', 'самый', '2xl', 'об105', 'носить', 'рукав', 'очень', 'фасон', 'действительно', 'любить', 'писать', 'белый', 'больший', 'свободно', 'пойти', 'целое', 'аллергик', 'ог108', 'цена', 'это', 'стоимость']</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[72, 32, 5, 238, 137, 52, 132, 29, 29, 8, 14, 51, 6, 96, 28, 9, 50, 240, 130, 80, 21, 15, 240, 37, 189, 61, 8, 51, 72, 5, 163, 241, 64]</t>
+          <t>[121, 153, 28, 53, 89, 5, 224, 15, 14, 23, 59, 46, 8, 43, 6, 55, 177, 119, 120, 56, 33, 75, 226, 93, 30, 11]</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2378,12 +2798,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>['хороший', 'оверсайза', 'рубашка']</t>
+          <t>['рубашка', 'оверсайза', 'хороший']</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[4, 6, 2]</t>
+          <t>[2, 5, 4]</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2826,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>['очень', 'довольно', 'покупка']</t>
+          <t>['довольно', 'очень', 'покупка']</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[5, 30]</t>
+          <t>[6, 29]</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2424,12 +2854,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>['рубашка', 'выше', 'похвала', 'купить', 'сперва', 'белый', 'р.50', 'р-р', '50-52', 'ог', '106', 'смотреть', '-110', 'смотреть', 'брать', 'верхний', 'слой', 'свободный', 'оверсайза', 'село', 'хотеть', '48', 'р-р', 'свободно', 'отлично', 'пойти', 'заправка', 'юбка', 'брюки', 'настолько', 'понравиться', 'рубашка', 'выкупить', 'чёрный', 'ткань', 'шикарный', 'держать', 'форма', 'хлопок', 'жара', 'комфортно.об', 'рубашка', '50', 'р-р', 'одинаковый', 'достаться', 'брак', 'ровный', 'фабричный', 'строчками.рубашка', 'пушка']</t>
+          <t>['форма', 'юбка', 'настолько', 'одинаковый', '48', 'рубашка', 'выкупить', 'ог', 'брюки', 'заправка', 'держать', 'оверсайза', 'фабричный', 'р-р', 'брак', 'шикарный', 'строчками.рубашка', 'верхний', 'брать', 'понравиться', 'жара', '50-52', 'хотеть', 'свободный', 'выше', 'пушка', 'отлично', 'село', 'р.50', '106', '50', 'ровный', 'купить', 'белый', 'комфортно.об', 'достаться', 'свободно', 'ткань', 'похвала', '-110', 'слой', 'пойти', 'чёрный', 'хлопок', 'сперва', 'смотреть']</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[2, 121, 64, 133, 36, 12, 12, 15, 232, 81, 82, 6, 69, 21, 133, 80, 67, 241, 122, 236, 18, 2, 219, 10, 116, 54, 2, 133, 178, 198, 124, 239]</t>
+          <t>[111, 165, 2, 42, 222, 5, 188, 107, 219, 15, 16, 23, 77, 225, 62, 63, 114, 113, 56, 75, 10, 76, 226, 207, 48, 12]</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2882,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>['хороший', 'классический', 'рубашка', 'ткань', 'синтетик', 'гладиться', 'отпаривание', 'носить', 'верх', 'размер', 'м', 'xl', 'сесть', 'прям', 'свободно', 'размер', 'маленький', 'взять']</t>
+          <t>['рубашка', 'синтетик', 'размер', 'маленький', 'верх', 'сесть', 'отпаривание', 'прям', 'хороший', 'взять', 'классический', 'носить', 'свободно', 'ткань', 'гладиться', 'xl']</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[4, 65, 2, 10, 63, 125, 9, 3, 33, 131, 216, 98, 80, 3, 43, 23]</t>
+          <t>[2, 54, 3, 38, 203, 91, 4, 21, 57, 8, 75, 10, 116, 220]</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2470,12 +2910,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>['очень', 'кайфовый', 'приятный', 'материал', 'именно', 'искать', 'ог114', 'от108', 'об122', 'размер', '58', 'прекрасный', 'оверсайза', 'взять', 'ещё']</t>
+          <t>['приятный', 'размер', 'именно', 'искать', '58', 'материал', 'от108', 'прекрасный', 'оверсайза', 'взять', 'ещё', 'кайфовый', 'об122', 'очень', 'ог114']</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[5, 20, 42, 206, 3, 129, 6, 23, 94]</t>
+          <t>[18, 3, 194, 37, 118, 5, 21, 85, 6]</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2493,12 +2938,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>['отличный', 'рубашка', 'размер']</t>
+          <t>['рубашка', 'размер', 'отличный']</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[19, 2, 3]</t>
+          <t>[2, 3, 17]</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2516,12 +2966,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>['очень', 'больший', 'смотреть', 'фото']</t>
+          <t>['больший', 'смотреть', 'фото', 'очень']</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[5, 29, 12, 11]</t>
+          <t>[33, 12, 9, 6]</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2539,12 +2994,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>['хороший', 'качество', 'заказывать', 'специально', 'несколько', 'размер', 'оверсайза']</t>
+          <t>['специально', 'размер', 'заказывать', 'хороший', 'несколько', 'оверсайза', 'качество']</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[4, 7, 38, 154, 3, 6]</t>
+          <t>[3, 35, 4, 146, 5, 7]</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2562,12 +3022,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>['хороший', 'рубашка']</t>
+          <t>['рубашка', 'хороший']</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[2, 4]</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2585,12 +3050,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>['модель', 'рост', '162', 'размер', 's.', 'рубашка', 'взять', 'м', 'получиться', 'очень', 'оверсайза', 'великоватый', 'спина', 'критично', 'качество', 'хороший']</t>
+          <t>['рубашка', 'получиться', '162', 'размер', 'модель', 'взять', 'оверсайза', 'хороший', 'критично', 'рост', 'очень', 'великоватый', 'спина', 's.', 'качество']</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[118, 28, 3, 2, 23, 33, 5, 6, 155, 78, 7, 4]</t>
+          <t>[2, 3, 108, 21, 5, 4, 72, 28, 6, 147, 7]</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2608,12 +3078,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>['легко', 'отпариваться', 'также', 'мяться', 'принцип', 'очевидный', 'любить', 'роспуск', 'носить', 'заправлять', 'материал', 'чуточку', 'просвечивать', 'критично', 'цена']</t>
+          <t>['также', 'отпариваться', 'заправлять', 'любить', 'материал', 'просвечивать', 'носить', 'принцип', 'критично', 'мяться', 'легко', 'чуточку', 'цена', 'роспуск', 'очевидный']</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[84, 45, 180, 130, 9, 237, 42, 22, 78, 32]</t>
+          <t>[223, 119, 37, 22, 8, 167, 72, 40, 79, 30]</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2631,12 +3106,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>['интересно', 'размер', 'кроить', 'рубашка', 'хотеть', 'сказать', 'это', 'оверсайза', 'хотеть', 'сказать', 'это', '46', 'размер', 'писать', 'высокий', 'рост', '175', 'смотреть', 'обхват', 'грудь', '91', 'талия', '71.', 'одеть', 'вещь', 'послать', 'поставить', 'звезда', 'поставить', 'возможно']</t>
+          <t>['интересно', 'рост', 'возможно', 'обхват', 'грудь', 'вещь', 'рубашка', 'размер', 'одеть', 'оверсайза', 'сказать', 'кроить', 'хотеть', 'поставить', 'послать', 'талия', 'высокий', 'писать', '71.', '91', 'звезда', '46', '175', 'это', 'смотреть']</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[3, 2, 21, 85, 8, 6, 21, 85, 8, 3, 132, 28, 12, 115, 177, 26, 242, 242, 221]</t>
+          <t>[28, 209, 104, 25, 2, 3, 5, 117, 23, 170, 120, 11, 12]</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2654,12 +3134,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>['самый', 'любимый', 'рубашка', 'брать', 's', 'рост', '155', 'село', 'оверсайза', 'супер', 'учесть', 'материал', 'дышать', 'слово', 'пипец', 'жарко', 'inst', 'powlxq']</t>
+          <t>['супер', 'учесть', 'рубашка', 'слово', 'материал', 'оверсайза', 'самый', 'село', 'дышать', '155', 'пипец', 'жарко', 'любимый', 'рост', 'powlxq', 'брать', 'inst']</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[50, 119, 2, 15, 47, 28, 69, 6, 66, 42, 190, 243, 228]</t>
+          <t>[58, 2, 227, 37, 5, 46, 63, 178, 109, 28, 15, 215]</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2677,12 +3162,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>['отличный', 'рубашка', 'ткань', 'плотный', 'писать', 'большемерить', 'вроде', 'норма', 'рост', '157', 'длина', 'который', 'хотеть', 'носить', 'поверх', 'топ', 'футболка']</t>
+          <t>['топ', 'рубашка', 'писать', 'хотеть', 'длина', 'большемерить', 'норма', '157', 'который', 'отличный', 'носить', 'ткань', 'поверх', 'рост', 'вроде', 'футболка', 'плотный']</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[19, 2, 10, 162, 132, 68, 107, 143, 28, 179, 55, 21, 9, 123, 46]</t>
+          <t>[41, 2, 120, 23, 166, 60, 132, 61, 17, 8, 10, 112, 28, 100, 156]</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2700,12 +3190,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>['хороший', 'рубашка', 'качество', 'нормальное.удобный', 'красиво', 'смотреться', 'топ', 'застегнуть', 'юбка', 'общий', 'универсальный', 'подходить', 'весь']</t>
+          <t>['застегнуть', 'топ', 'рубашка', 'юбка', 'общий', 'нормальное.удобный', 'красиво', 'хороший', 'универсальный', 'весь', 'подходить', 'смотреться', 'качество']</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[4, 2, 7, 220, 39, 46, 122, 106, 214, 120, 95]</t>
+          <t>[41, 2, 111, 98, 211, 4, 198, 86, 110, 47, 7]</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2723,12 +3218,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>['рубашка', 'хороший', 'от65', 'об88', 'взять', 'размер', 'l.', 'мера', 'свободный', 'носить', 'первый', 'слой', 'поверх', 'топ', 'советовать']</t>
+          <t>['мера', 'рубашка', 'топ', 'об88', 'свободный', 'размер', 'от65', 'взять', 'хороший', 'первый', 'советовать', 'носить', 'поверх', 'слой', 'l.']</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[2, 4, 23, 3, 210, 82, 9, 31, 81, 123, 46, 44]</t>
+          <t>[201, 2, 41, 77, 3, 21, 4, 34, 39, 8, 112, 76]</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2746,12 +3246,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>['сказать', 'слово', 'ужас', 'первый', 'взгляд', 'примерка', 'всё', 'отлично', 'мяться', 'просто', 'молниеносно', 'первый', 'стирка', 'ткань', 'манжета', 'шов', 'разойтись', 'совет', 'кой', 'случай', 'покупать']</t>
+          <t>['слово', 'случай', 'шов', 'примерка', 'мяться', 'покупать', 'совет', 'сказать', 'ужас', 'манжета', 'просто', 'стирка', 'отлично', 'взгляд', 'кой', 'молниеносно', 'первый', 'разойтись', 'ткань', 'всё']</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[85, 243, 134, 31, 211, 27, 67, 45, 14, 31, 52, 10, 164, 62, 151, 235, 135]</t>
+          <t>[227, 73, 197, 40, 123, 144, 117, 126, 154, 14, 59, 62, 221, 34, 10, 27]</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
     </row>
